--- a/data/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/data/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11355,7 +11355,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11472,7 +11472,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11640,7 +11640,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12522,7 +12522,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12838,7 +12838,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13002,7 +13002,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -14040,7 +14040,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14602,7 +14602,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14922,7 +14922,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15207,7 +15207,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15358,7 +15358,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15432,7 +15432,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15732,7 +15732,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15775,7 +15775,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16060,7 +16060,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16134,7 +16134,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16423,7 +16423,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16462,7 +16462,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16575,7 +16575,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -16614,7 +16614,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16942,7 +16942,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17207,7 +17207,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17375,7 +17375,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -17648,7 +17648,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -17691,7 +17691,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17777,7 +17777,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17929,7 +17929,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18089,7 +18089,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18132,7 +18132,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18327,7 +18327,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18409,7 +18409,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18979,7 +18979,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19065,7 +19065,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19108,7 +19108,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19268,7 +19268,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -19338,7 +19338,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -19377,7 +19377,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -19420,7 +19420,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -19498,7 +19498,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -19541,7 +19541,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -19584,7 +19584,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -19744,7 +19744,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -19857,7 +19857,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20185,7 +20185,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20224,7 +20224,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -20458,7 +20458,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
@@ -20786,7 +20786,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -20868,7 +20868,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20981,7 +20981,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21184,7 +21184,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21227,7 +21227,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21270,7 +21270,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -21309,7 +21309,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -21430,7 +21430,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -21543,7 +21543,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -21582,7 +21582,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -21625,7 +21625,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -21910,7 +21910,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -21992,7 +21992,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22105,7 +22105,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22187,7 +22187,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22265,7 +22265,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -22394,7 +22394,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -22433,7 +22433,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -22554,7 +22554,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -22585,7 +22585,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -22612,7 +22612,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -22666,7 +22666,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -22697,7 +22697,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -22740,7 +22740,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -22779,7 +22779,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -22818,7 +22818,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -22939,7 +22939,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -22982,7 +22982,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23025,7 +23025,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23185,7 +23185,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -23259,7 +23259,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -23501,7 +23501,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -23669,7 +23669,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -23747,7 +23747,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -23821,7 +23821,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -23864,7 +23864,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -23942,7 +23942,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -23985,7 +23985,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24063,7 +24063,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24192,7 +24192,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -24231,7 +24231,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -24309,7 +24309,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -24426,7 +24426,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -24504,7 +24504,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -24547,7 +24547,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -24711,7 +24711,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -24754,7 +24754,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C617" s="2" t="n">
@@ -24832,7 +24832,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -24914,7 +24914,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -24945,7 +24945,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25027,7 +25027,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25187,7 +25187,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -25230,7 +25230,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -25355,7 +25355,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -25394,7 +25394,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -25597,7 +25597,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -25640,7 +25640,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -25804,7 +25804,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C644" s="2" t="n">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26007,7 +26007,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -26323,7 +26323,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -26448,7 +26448,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -26487,7 +26487,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -26526,7 +26526,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -26569,7 +26569,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -26643,7 +26643,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -26682,7 +26682,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -26764,7 +26764,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -26885,7 +26885,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -26928,7 +26928,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -26971,7 +26971,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27049,7 +27049,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -27205,7 +27205,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -27244,7 +27244,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -27283,7 +27283,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -27326,7 +27326,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -27490,7 +27490,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -27533,7 +27533,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -27572,7 +27572,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -27611,7 +27611,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -27724,7 +27724,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -27767,7 +27767,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -27806,7 +27806,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28009,7 +28009,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28052,7 +28052,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28134,7 +28134,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -28255,7 +28255,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -28286,7 +28286,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -28313,7 +28313,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -28340,7 +28340,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -28367,7 +28367,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -28410,7 +28410,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -28449,7 +28449,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -28570,7 +28570,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -28613,7 +28613,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -28656,7 +28656,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -28699,7 +28699,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -28816,7 +28816,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -28859,7 +28859,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -28890,7 +28890,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -29011,7 +29011,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -29054,7 +29054,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -29218,7 +29218,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -29300,7 +29300,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -29339,7 +29339,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -29421,7 +29421,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C733" s="2" t="n">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -29526,7 +29526,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -29565,7 +29565,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -29604,7 +29604,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -29647,7 +29647,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -29725,7 +29725,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -29811,7 +29811,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -29893,7 +29893,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -29971,7 +29971,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -30014,7 +30014,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -30045,7 +30045,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -30127,7 +30127,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -30209,7 +30209,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -30373,7 +30373,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -30455,7 +30455,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -30494,7 +30494,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -30576,7 +30576,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -30607,7 +30607,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -30650,7 +30650,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -30689,7 +30689,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -30728,7 +30728,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -30771,7 +30771,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -30849,7 +30849,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -30892,7 +30892,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -30978,7 +30978,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -31017,7 +31017,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -31056,7 +31056,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -31138,7 +31138,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -31251,7 +31251,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -31290,7 +31290,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -31411,7 +31411,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -31454,7 +31454,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -31540,7 +31540,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -31579,7 +31579,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C787" s="2" t="n">
@@ -31618,7 +31618,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -31700,7 +31700,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -31774,7 +31774,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -31813,7 +31813,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -31852,7 +31852,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -31895,7 +31895,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -31973,7 +31973,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -32016,7 +32016,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -32059,7 +32059,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -32102,7 +32102,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -32141,7 +32141,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -32180,7 +32180,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -32219,7 +32219,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -32262,7 +32262,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -32305,7 +32305,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -32344,7 +32344,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -32387,7 +32387,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -32508,7 +32508,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -32672,7 +32672,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -32711,7 +32711,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -32754,7 +32754,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -32785,7 +32785,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C817" s="2" t="n">
@@ -32828,7 +32828,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -32867,7 +32867,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -32906,7 +32906,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -32949,7 +32949,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -33027,7 +33027,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -33070,7 +33070,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -33113,7 +33113,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -33156,7 +33156,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C826" s="2" t="n">
@@ -33195,7 +33195,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -33234,7 +33234,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -33273,7 +33273,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -33316,7 +33316,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -33390,7 +33390,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -33468,7 +33468,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C834" s="2" t="n">
@@ -33511,7 +33511,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -33589,7 +33589,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -33632,7 +33632,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -33675,7 +33675,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -33718,7 +33718,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -33835,7 +33835,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C844" s="2" t="n">
@@ -33909,7 +33909,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C845" s="2" t="n">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C846" s="2" t="n">
@@ -33967,7 +33967,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -33994,7 +33994,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -34052,7 +34052,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -34095,7 +34095,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -34134,7 +34134,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -34177,7 +34177,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -34255,7 +34255,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -34298,7 +34298,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C856" s="2" t="n">
@@ -34341,7 +34341,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -34423,7 +34423,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -34462,7 +34462,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -34501,7 +34501,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -34544,7 +34544,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -34606,7 +34606,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C864" s="2" t="n">
@@ -34637,7 +34637,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -34680,7 +34680,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -34719,7 +34719,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C867" s="2" t="n">
@@ -34758,7 +34758,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -34801,7 +34801,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -34879,7 +34879,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -34922,7 +34922,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -34965,7 +34965,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -35008,7 +35008,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -35047,7 +35047,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -35086,7 +35086,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -35125,7 +35125,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -35168,7 +35168,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C878" s="2" t="n">
@@ -35199,7 +35199,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -35320,7 +35320,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -35363,7 +35363,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -35441,7 +35441,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -35484,7 +35484,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -35527,7 +35527,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -35570,7 +35570,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C888" s="2" t="n">
@@ -35609,7 +35609,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -35648,7 +35648,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -35687,7 +35687,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
